--- a/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9824983919318472</v>
+        <v>0.9965419457814316</v>
       </c>
       <c r="D2">
-        <v>1.004473823379318</v>
+        <v>1.019151136735203</v>
       </c>
       <c r="E2">
-        <v>0.9913558853163592</v>
+        <v>1.003450327451024</v>
       </c>
       <c r="F2">
-        <v>0.9583996194030854</v>
+        <v>1.01512423235515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038787124464537</v>
+        <v>1.04623565358964</v>
       </c>
       <c r="J2">
-        <v>1.005215478444011</v>
+        <v>1.018826580902894</v>
       </c>
       <c r="K2">
-        <v>1.015871180631814</v>
+        <v>1.030349960651664</v>
       </c>
       <c r="L2">
-        <v>1.002936974633783</v>
+        <v>1.014861802115467</v>
       </c>
       <c r="M2">
-        <v>0.9704706364341593</v>
+        <v>1.026376808251998</v>
       </c>
       <c r="N2">
-        <v>1.006642999723229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.020273431508816</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029447778653725</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03253023336338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9878983401614988</v>
+        <v>1.000758689508925</v>
       </c>
       <c r="D3">
-        <v>1.008521553905245</v>
+        <v>1.022047928301003</v>
       </c>
       <c r="E3">
-        <v>0.9957021634579197</v>
+        <v>1.006792573823085</v>
       </c>
       <c r="F3">
-        <v>0.9666183304517427</v>
+        <v>1.018358442132083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040337934031675</v>
+        <v>1.047210015663159</v>
       </c>
       <c r="J3">
-        <v>1.00872443475585</v>
+        <v>1.021228693229426</v>
       </c>
       <c r="K3">
-        <v>1.019046548714747</v>
+        <v>1.03240626474237</v>
       </c>
       <c r="L3">
-        <v>1.006390332887396</v>
+        <v>1.017339273934035</v>
       </c>
       <c r="M3">
-        <v>0.9776969380758049</v>
+        <v>1.028761690709446</v>
       </c>
       <c r="N3">
-        <v>1.010156939155514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.02267895511038</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031335280184357</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033981558642871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9913001260195591</v>
+        <v>1.003430637525529</v>
       </c>
       <c r="D4">
-        <v>1.011070299086254</v>
+        <v>1.023883678923017</v>
       </c>
       <c r="E4">
-        <v>0.9984465369651305</v>
+        <v>1.008916251214829</v>
       </c>
       <c r="F4">
-        <v>0.971781921243175</v>
+        <v>1.020416783855687</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041297388746078</v>
+        <v>1.047811961979347</v>
       </c>
       <c r="J4">
-        <v>1.010929024306509</v>
+        <v>1.022746992499223</v>
       </c>
       <c r="K4">
-        <v>1.021036926489332</v>
+        <v>1.033702147523078</v>
       </c>
       <c r="L4">
-        <v>1.008563747147023</v>
+        <v>1.018908242971192</v>
       </c>
       <c r="M4">
-        <v>0.9822332824180411</v>
+        <v>1.030274886215035</v>
       </c>
       <c r="N4">
-        <v>1.012364659476204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.024199410539291</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032532887428054</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034898776109782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927091547051565</v>
+        <v>1.004543928218046</v>
       </c>
       <c r="D5">
-        <v>1.012125627128829</v>
+        <v>1.024650360973909</v>
       </c>
       <c r="E5">
-        <v>0.9995847354302716</v>
+        <v>1.0098029299847</v>
       </c>
       <c r="F5">
-        <v>0.9739178573984963</v>
+        <v>1.021275472865804</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041690531309053</v>
+        <v>1.048060306945694</v>
       </c>
       <c r="J5">
-        <v>1.011840726327069</v>
+        <v>1.02337992105097</v>
       </c>
       <c r="K5">
-        <v>1.021858889915438</v>
+        <v>1.034242732407473</v>
       </c>
       <c r="L5">
-        <v>1.009463448819238</v>
+        <v>1.019562795081617</v>
       </c>
       <c r="M5">
-        <v>0.9841088110835673</v>
+        <v>1.03090538993626</v>
       </c>
       <c r="N5">
-        <v>1.013277656218207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.024833237922181</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033031894268319</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035288237304318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9929445289638139</v>
+        <v>1.004733869626131</v>
       </c>
       <c r="D6">
-        <v>1.01230189262605</v>
+        <v>1.024783361412827</v>
       </c>
       <c r="E6">
-        <v>0.9997749532531266</v>
+        <v>1.009954848702671</v>
       </c>
       <c r="F6">
-        <v>0.9742745065095961</v>
+        <v>1.021420819059379</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041755951874099</v>
+        <v>1.048104052341561</v>
       </c>
       <c r="J6">
-        <v>1.011992937991762</v>
+        <v>1.023489385998096</v>
       </c>
       <c r="K6">
-        <v>1.021996050478328</v>
+        <v>1.034337769372891</v>
       </c>
       <c r="L6">
-        <v>1.009613709221017</v>
+        <v>1.019675761424216</v>
       </c>
       <c r="M6">
-        <v>0.9844219216430907</v>
+        <v>1.031012462534905</v>
       </c>
       <c r="N6">
-        <v>1.013430084040922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.024942858322087</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033116635936106</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03536423698079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9913190350675298</v>
+        <v>1.003455662488705</v>
       </c>
       <c r="D7">
-        <v>1.011084463068433</v>
+        <v>1.023906743848574</v>
       </c>
       <c r="E7">
-        <v>0.998461805743789</v>
+        <v>1.008937696769173</v>
       </c>
       <c r="F7">
-        <v>0.9718105959164717</v>
+        <v>1.020432653630997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041302681648267</v>
+        <v>1.047821808192686</v>
       </c>
       <c r="J7">
-        <v>1.01094126501475</v>
+        <v>1.022765324752749</v>
       </c>
       <c r="K7">
-        <v>1.021047966961533</v>
+        <v>1.033722042309833</v>
       </c>
       <c r="L7">
-        <v>1.008575823215881</v>
+        <v>1.01892646969556</v>
       </c>
       <c r="M7">
-        <v>0.9822584649524124</v>
+        <v>1.030287652971014</v>
       </c>
       <c r="N7">
-        <v>1.012376917567655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.02421776882672</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032542991572676</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034933087125513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843430910741796</v>
+        <v>0.9979914172541663</v>
       </c>
       <c r="D8">
-        <v>1.005856783656627</v>
+        <v>1.020153790085605</v>
       </c>
       <c r="E8">
-        <v>0.9928392606174412</v>
+        <v>1.004599936463662</v>
       </c>
       <c r="F8">
-        <v>0.9612105031938654</v>
+        <v>1.016229909140058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039320547937275</v>
+        <v>1.046578796604326</v>
       </c>
       <c r="J8">
-        <v>1.006415425176849</v>
+        <v>1.01965804509715</v>
       </c>
       <c r="K8">
-        <v>1.016958001252022</v>
+        <v>1.031067513871998</v>
       </c>
       <c r="L8">
-        <v>1.004117110366441</v>
+        <v>1.015717957134274</v>
       </c>
       <c r="M8">
-        <v>0.9729428655096567</v>
+        <v>1.027194433754841</v>
       </c>
       <c r="N8">
-        <v>1.007844650518062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0211060764776</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030094884242435</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03306069682541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9712930010042437</v>
+        <v>0.9878925357796882</v>
       </c>
       <c r="D9">
-        <v>0.9960717639914579</v>
+        <v>1.013213035834047</v>
       </c>
       <c r="E9">
-        <v>0.9823751221978794</v>
+        <v>0.9966290554375548</v>
       </c>
       <c r="F9">
-        <v>0.9412417868004194</v>
+        <v>1.008541506085888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035474498238292</v>
+        <v>1.044154603285711</v>
       </c>
       <c r="J9">
-        <v>0.9979018573204205</v>
+        <v>1.013880205589475</v>
       </c>
       <c r="K9">
-        <v>1.00922889723033</v>
+        <v>1.026095317401418</v>
       </c>
       <c r="L9">
-        <v>0.9957607732439163</v>
+        <v>1.009777061655617</v>
       </c>
       <c r="M9">
-        <v>0.9553659916362328</v>
+        <v>1.021497506863243</v>
       </c>
       <c r="N9">
-        <v>0.9993189924187585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015320031775097</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025586067501517</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029541752623534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620055060381082</v>
+        <v>0.9809456340286865</v>
       </c>
       <c r="D10">
-        <v>0.9891104579087696</v>
+        <v>1.008450915404839</v>
       </c>
       <c r="E10">
-        <v>0.9749690902053358</v>
+        <v>0.9911950500727045</v>
       </c>
       <c r="F10">
-        <v>0.9268927145751206</v>
+        <v>1.003548524086912</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032647892075467</v>
+        <v>1.042425225278415</v>
       </c>
       <c r="J10">
-        <v>0.9918121102211593</v>
+        <v>1.009936185445665</v>
       </c>
       <c r="K10">
-        <v>1.003679149853383</v>
+        <v>1.022669244164364</v>
       </c>
       <c r="L10">
-        <v>0.9898054867083573</v>
+        <v>1.005725121482776</v>
       </c>
       <c r="M10">
-        <v>0.942720543941054</v>
+        <v>1.017854003054644</v>
       </c>
       <c r="N10">
-        <v>0.9932205971801127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011370410670298</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022754849967467</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027136237218653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9578245307802986</v>
+        <v>0.9788093521063566</v>
       </c>
       <c r="D11">
-        <v>0.985978767487906</v>
+        <v>1.007024249181742</v>
       </c>
       <c r="E11">
-        <v>0.9716459052617424</v>
+        <v>0.9896412512355445</v>
       </c>
       <c r="F11">
-        <v>0.920388804186052</v>
+        <v>1.003962324932999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031355211486408</v>
+        <v>1.041986962784103</v>
       </c>
       <c r="J11">
-        <v>0.9890635639215812</v>
+        <v>1.00909105317253</v>
       </c>
       <c r="K11">
-        <v>1.001170038018913</v>
+        <v>1.021814903159303</v>
       </c>
       <c r="L11">
-        <v>0.9871231078121926</v>
+        <v>1.004761198549546</v>
       </c>
       <c r="M11">
-        <v>0.936986286638251</v>
+        <v>1.018809902471057</v>
       </c>
       <c r="N11">
-        <v>0.9904681476295266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010524078212397</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023954996418782</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02656538407692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9562456323569103</v>
+        <v>0.9783210038107645</v>
       </c>
       <c r="D12">
-        <v>0.9847965729908831</v>
+        <v>1.00671016856212</v>
       </c>
       <c r="E12">
-        <v>0.9703926619495034</v>
+        <v>0.9893409120026595</v>
       </c>
       <c r="F12">
-        <v>0.9179248438441653</v>
+        <v>1.004986342546891</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864097966336</v>
+        <v>1.041931552177484</v>
       </c>
       <c r="J12">
-        <v>0.988024551649636</v>
+        <v>1.009072064803313</v>
       </c>
       <c r="K12">
-        <v>1.000220960442635</v>
+        <v>1.021709931656669</v>
       </c>
       <c r="L12">
-        <v>0.9861099575719121</v>
+        <v>1.00467521268005</v>
       </c>
       <c r="M12">
-        <v>0.9348136271080452</v>
+        <v>1.020018631578249</v>
       </c>
       <c r="N12">
-        <v>0.9894276598409787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010505062877517</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025242126806068</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026491164235967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9565855171188996</v>
+        <v>0.9790776718135854</v>
       </c>
       <c r="D13">
-        <v>0.9850510376976556</v>
+        <v>1.007243923209274</v>
       </c>
       <c r="E13">
-        <v>0.970662364621839</v>
+        <v>0.9899918461863296</v>
       </c>
       <c r="F13">
-        <v>0.9184556274080855</v>
+        <v>1.006573221451993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030969950067738</v>
+        <v>1.042179201978626</v>
       </c>
       <c r="J13">
-        <v>0.9882482641621964</v>
+        <v>1.009698707771767</v>
       </c>
       <c r="K13">
-        <v>1.000425333774169</v>
+        <v>1.022190072346114</v>
       </c>
       <c r="L13">
-        <v>0.9863280628681097</v>
+        <v>1.005268643744872</v>
       </c>
       <c r="M13">
-        <v>0.9352816696387597</v>
+        <v>1.021531948559398</v>
       </c>
       <c r="N13">
-        <v>0.9896516900509669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011132595750864</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026718595082089</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026828126026719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9576945589213365</v>
+        <v>0.9801585894026571</v>
       </c>
       <c r="D14">
-        <v>0.9858814415008236</v>
+        <v>1.007993784435736</v>
       </c>
       <c r="E14">
-        <v>0.9715427052130092</v>
+        <v>0.9908674282469805</v>
       </c>
       <c r="F14">
-        <v>0.9201861419989568</v>
+        <v>1.007910270446861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031314843243381</v>
+        <v>1.042485572980742</v>
       </c>
       <c r="J14">
-        <v>0.9889780557805952</v>
+        <v>1.010417612454453</v>
       </c>
       <c r="K14">
-        <v>1.001091942576438</v>
+        <v>1.02278328119306</v>
       </c>
       <c r="L14">
-        <v>0.9870397106611918</v>
+        <v>1.005980849341562</v>
       </c>
       <c r="M14">
-        <v>0.9368075890736776</v>
+        <v>1.022701311951209</v>
       </c>
       <c r="N14">
-        <v>0.9903825180571724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011852521360659</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027817929151773</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027248993304331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9583743823617726</v>
+        <v>0.9807066164030492</v>
       </c>
       <c r="D15">
-        <v>0.9863905285774569</v>
+        <v>1.008372656798901</v>
       </c>
       <c r="E15">
-        <v>0.9720825681079782</v>
+        <v>0.9913007716196004</v>
       </c>
       <c r="F15">
-        <v>0.9212458493830533</v>
+        <v>1.008408517367875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031525871747737</v>
+        <v>1.042632119974928</v>
       </c>
       <c r="J15">
-        <v>0.9894252669881465</v>
+        <v>1.010748550027167</v>
       </c>
       <c r="K15">
-        <v>1.001500362012317</v>
+        <v>1.023067325661603</v>
       </c>
       <c r="L15">
-        <v>0.9874759159991546</v>
+        <v>1.006315777037109</v>
       </c>
       <c r="M15">
-        <v>0.9377419764191186</v>
+        <v>1.02310252821159</v>
       </c>
       <c r="N15">
-        <v>0.990830364355934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012183928902685</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028172899301284</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027455760172196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9622794636222434</v>
+        <v>0.9834882876565243</v>
       </c>
       <c r="D16">
-        <v>0.9893157162196472</v>
+        <v>1.010279116390844</v>
       </c>
       <c r="E16">
-        <v>0.9751870733617579</v>
+        <v>0.9934574179198945</v>
       </c>
       <c r="F16">
-        <v>0.9273178676761491</v>
+        <v>1.01025491878917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032732182871168</v>
+        <v>1.04333088162827</v>
       </c>
       <c r="J16">
-        <v>0.9919920619439678</v>
+        <v>1.012293747929101</v>
       </c>
       <c r="K16">
-        <v>1.003843342092469</v>
+        <v>1.024429085679848</v>
       </c>
       <c r="L16">
-        <v>0.9899812219897213</v>
+        <v>1.00790878568229</v>
       </c>
       <c r="M16">
-        <v>0.943095341675</v>
+        <v>1.024405312292209</v>
       </c>
       <c r="N16">
-        <v>0.9934008044550079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013731321162876</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029163563783365</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028421788146462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646850297271935</v>
+        <v>0.9850656019354072</v>
       </c>
       <c r="D17">
-        <v>0.9911183010942225</v>
+        <v>1.011356001436675</v>
       </c>
       <c r="E17">
-        <v>0.9771023733053843</v>
+        <v>0.994663292644118</v>
       </c>
       <c r="F17">
-        <v>0.9310459099011887</v>
+        <v>1.010977474234435</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033470045771223</v>
+        <v>1.043706158139549</v>
       </c>
       <c r="J17">
-        <v>0.9935713792211857</v>
+        <v>1.013110036306088</v>
       </c>
       <c r="K17">
-        <v>1.005283871669814</v>
+        <v>1.025167806049617</v>
       </c>
       <c r="L17">
-        <v>0.9915241563687031</v>
+        <v>1.008765545209506</v>
       </c>
       <c r="M17">
-        <v>0.9463815574538033</v>
+        <v>1.02479572783493</v>
       </c>
       <c r="N17">
-        <v>0.9949823645439099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014548768762988</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029341955692794</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028946711996503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9660729159280599</v>
+        <v>0.9857097099411911</v>
       </c>
       <c r="D18">
-        <v>0.9921584869049607</v>
+        <v>1.011782934003529</v>
       </c>
       <c r="E18">
-        <v>0.9782084135574105</v>
+        <v>0.9951191367144538</v>
       </c>
       <c r="F18">
-        <v>0.9331926995465198</v>
+        <v>1.01062807494972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033893842166507</v>
+        <v>1.043822176583153</v>
       </c>
       <c r="J18">
-        <v>0.9944818921126972</v>
+        <v>1.013323674116837</v>
       </c>
       <c r="K18">
-        <v>1.006113961932078</v>
+        <v>1.025401331690427</v>
       </c>
       <c r="L18">
-        <v>0.9924142075652413</v>
+        <v>1.009022655452827</v>
       </c>
       <c r="M18">
-        <v>0.9482736761167777</v>
+        <v>1.024265841538777</v>
       </c>
       <c r="N18">
-        <v>0.9958941704681646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014762709963933</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028682852945997</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029100074218453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665436197997971</v>
+        <v>0.9854765676822593</v>
       </c>
       <c r="D19">
-        <v>0.9925112956358452</v>
+        <v>1.011605886599829</v>
       </c>
       <c r="E19">
-        <v>0.9785836978378107</v>
+        <v>0.9948681904876147</v>
       </c>
       <c r="F19">
-        <v>0.9339201238750308</v>
+        <v>1.009198257478549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03403724645792</v>
+        <v>1.043698250294269</v>
       </c>
       <c r="J19">
-        <v>0.9947905798017204</v>
+        <v>1.012961798363457</v>
       </c>
       <c r="K19">
-        <v>1.006395313078345</v>
+        <v>1.02516376449289</v>
       </c>
       <c r="L19">
-        <v>0.9927160446636601</v>
+        <v>1.008711074927215</v>
       </c>
       <c r="M19">
-        <v>0.9489147624783062</v>
+        <v>1.022796381627491</v>
       </c>
       <c r="N19">
-        <v>0.9962032965291132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014400320305475</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027191194268974</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028938562085439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.964428524920053</v>
+        <v>0.9827773403463462</v>
       </c>
       <c r="D20">
-        <v>0.9909260714895061</v>
+        <v>1.009718823573317</v>
       </c>
       <c r="E20">
-        <v>0.9768980396497808</v>
+        <v>0.992630169089305</v>
       </c>
       <c r="F20">
-        <v>0.9306488230842026</v>
+        <v>1.00486530043932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033391565641014</v>
+        <v>1.042896088892368</v>
       </c>
       <c r="J20">
-        <v>0.9934030466555703</v>
+        <v>1.010988699204327</v>
       </c>
       <c r="K20">
-        <v>1.005130373846602</v>
+        <v>1.023592905123163</v>
       </c>
       <c r="L20">
-        <v>0.9913596481331058</v>
+        <v>1.006803857906452</v>
       </c>
       <c r="M20">
-        <v>0.9460315559570108</v>
+        <v>1.018823135510778</v>
       </c>
       <c r="N20">
-        <v>0.9948137929267438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012424419119222</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023511078631529</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02783185205564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573687054397766</v>
+        <v>0.9773551819570923</v>
       </c>
       <c r="D21">
-        <v>0.9856374425234932</v>
+        <v>1.005995887343364</v>
       </c>
       <c r="E21">
-        <v>0.9712839995662834</v>
+        <v>0.9883807082426688</v>
       </c>
       <c r="F21">
-        <v>0.9196779157369948</v>
+        <v>1.000606367784193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031213588599182</v>
+        <v>1.041497268741536</v>
       </c>
       <c r="J21">
-        <v>0.9887636607122531</v>
+        <v>1.007831161278016</v>
       </c>
       <c r="K21">
-        <v>1.000896124370826</v>
+        <v>1.020864549261793</v>
       </c>
       <c r="L21">
-        <v>0.9868306222459163</v>
+        <v>1.003585606781055</v>
       </c>
       <c r="M21">
-        <v>0.9363594560442676</v>
+        <v>1.015576261441367</v>
       </c>
       <c r="N21">
-        <v>0.9901678185232413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009262397126881</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02089968290621</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025906037969641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9527789402758569</v>
+        <v>0.9739143081919217</v>
       </c>
       <c r="D22">
-        <v>0.9822018964882427</v>
+        <v>1.003633354959796</v>
       </c>
       <c r="E22">
-        <v>0.967644274084788</v>
+        <v>0.9856972876218609</v>
       </c>
       <c r="F22">
-        <v>0.9124989904434531</v>
+        <v>0.998041119083427</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029780462361482</v>
+        <v>1.040597757299131</v>
       </c>
       <c r="J22">
-        <v>0.9857413228958196</v>
+        <v>1.005843713736808</v>
       </c>
       <c r="K22">
-        <v>0.9981343793220357</v>
+        <v>1.019133176374479</v>
       </c>
       <c r="L22">
-        <v>0.9838851585772848</v>
+        <v>1.001557510393331</v>
       </c>
       <c r="M22">
-        <v>0.9300288614906741</v>
+        <v>1.013651481924546</v>
       </c>
       <c r="N22">
-        <v>0.9871411886404415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007272127182201</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019376304285691</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024668188107299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9552270841090524</v>
+        <v>0.9757375158327574</v>
       </c>
       <c r="D23">
-        <v>0.9840340845383074</v>
+        <v>1.004880503507126</v>
       </c>
       <c r="E23">
-        <v>0.9695846915211068</v>
+        <v>0.9871166169311361</v>
       </c>
       <c r="F23">
-        <v>0.9163329726623444</v>
+        <v>0.9994019041139025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030546461366195</v>
+        <v>1.041072792475324</v>
       </c>
       <c r="J23">
-        <v>0.9873539883504252</v>
+        <v>1.006893727239763</v>
       </c>
       <c r="K23">
-        <v>0.9996082859994379</v>
+        <v>1.020045307086762</v>
       </c>
       <c r="L23">
-        <v>0.9854563282257407</v>
+        <v>1.002628848018751</v>
       </c>
       <c r="M23">
-        <v>0.9334098906491596</v>
+        <v>1.014672132263515</v>
       </c>
       <c r="N23">
-        <v>0.9887561442649683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008323631824769</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020184104724026</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025303361206065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964544475353088</v>
+        <v>0.9827584216314152</v>
       </c>
       <c r="D24">
-        <v>0.991012966385627</v>
+        <v>1.009695545076071</v>
       </c>
       <c r="E24">
-        <v>0.9769904035007293</v>
+        <v>0.9926024433120246</v>
       </c>
       <c r="F24">
-        <v>0.9308283348408665</v>
+        <v>1.004663068593595</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033427047741738</v>
+        <v>1.04287602852518</v>
       </c>
       <c r="J24">
-        <v>0.9934791417922131</v>
+        <v>1.01093671573132</v>
       </c>
       <c r="K24">
-        <v>1.00519976417566</v>
+        <v>1.023554508868084</v>
       </c>
       <c r="L24">
-        <v>0.9914340128783027</v>
+        <v>1.006760725809348</v>
       </c>
       <c r="M24">
-        <v>0.9461897825384509</v>
+        <v>1.018608787407288</v>
       </c>
       <c r="N24">
-        <v>0.9948899961272083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012372361823721</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02329978727201</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027776999578605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9747640973209754</v>
+        <v>0.9905758006498974</v>
       </c>
       <c r="D25">
-        <v>0.9986744437272284</v>
+        <v>1.015064612660737</v>
       </c>
       <c r="E25">
-        <v>0.9851517023675403</v>
+        <v>0.9987436053724044</v>
       </c>
       <c r="F25">
-        <v>0.9465732534374325</v>
+        <v>1.010570351469051</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036513081525859</v>
+        <v>1.044818269076671</v>
       </c>
       <c r="J25">
-        <v>1.00017165461753</v>
+        <v>1.015424543074733</v>
       </c>
       <c r="K25">
-        <v>1.011293372160497</v>
+        <v>1.027433485906839</v>
       </c>
       <c r="L25">
-        <v>0.9979849769509166</v>
+        <v>1.011361456609465</v>
       </c>
       <c r="M25">
-        <v>0.9600617299521296</v>
+        <v>1.023006762874746</v>
       </c>
       <c r="N25">
-        <v>1.001592013088379</v>
+        <v>1.016866562396722</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026780566801188</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030516794003226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965419457814316</v>
+        <v>1.028123995004375</v>
       </c>
       <c r="D2">
-        <v>1.019151136735203</v>
+        <v>1.045692764344229</v>
       </c>
       <c r="E2">
-        <v>1.003450327451024</v>
+        <v>1.040573463606795</v>
       </c>
       <c r="F2">
-        <v>1.01512423235515</v>
+        <v>1.050944998085686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04623565358964</v>
+        <v>1.062133419541132</v>
       </c>
       <c r="J2">
-        <v>1.018826580902894</v>
+        <v>1.049494871294001</v>
       </c>
       <c r="K2">
-        <v>1.030349960651664</v>
+        <v>1.056550216865185</v>
       </c>
       <c r="L2">
-        <v>1.014861802115467</v>
+        <v>1.051495067680784</v>
       </c>
       <c r="M2">
-        <v>1.026376808251998</v>
+        <v>1.061737441513231</v>
       </c>
       <c r="N2">
-        <v>1.020273431508816</v>
+        <v>1.050985274389983</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029447778653725</v>
+        <v>1.057433240012425</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03253023336338</v>
+        <v>1.05105605216292</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000758689508925</v>
+        <v>1.031553207399809</v>
       </c>
       <c r="D3">
-        <v>1.022047928301003</v>
+        <v>1.048019905486502</v>
       </c>
       <c r="E3">
-        <v>1.006792573823085</v>
+        <v>1.04320849370733</v>
       </c>
       <c r="F3">
-        <v>1.018358442132083</v>
+        <v>1.05344205012985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047210015663159</v>
+        <v>1.063087030770274</v>
       </c>
       <c r="J3">
-        <v>1.021228693229426</v>
+        <v>1.051219158033211</v>
       </c>
       <c r="K3">
-        <v>1.03240626474237</v>
+        <v>1.058073129644358</v>
       </c>
       <c r="L3">
-        <v>1.017339273934035</v>
+        <v>1.053316824871065</v>
       </c>
       <c r="M3">
-        <v>1.028761690709446</v>
+        <v>1.063433915512975</v>
       </c>
       <c r="N3">
-        <v>1.02267895511038</v>
+        <v>1.052712009814141</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031335280184357</v>
+        <v>1.058775853669421</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033981558642871</v>
+        <v>1.052130227130784</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003430637525529</v>
+        <v>1.033737097311578</v>
       </c>
       <c r="D4">
-        <v>1.023883678923017</v>
+        <v>1.049505649108781</v>
       </c>
       <c r="E4">
-        <v>1.008916251214829</v>
+        <v>1.044892102023815</v>
       </c>
       <c r="F4">
-        <v>1.020416783855687</v>
+        <v>1.055037977113656</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047811961979347</v>
+        <v>1.063686081301799</v>
       </c>
       <c r="J4">
-        <v>1.022746992499223</v>
+        <v>1.052315477806186</v>
       </c>
       <c r="K4">
-        <v>1.033702147523078</v>
+        <v>1.059041159085973</v>
       </c>
       <c r="L4">
-        <v>1.018908242971192</v>
+        <v>1.054477305425852</v>
       </c>
       <c r="M4">
-        <v>1.030274886215035</v>
+        <v>1.06451459845306</v>
       </c>
       <c r="N4">
-        <v>1.024199410539291</v>
+        <v>1.053809886486943</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032532887428054</v>
+        <v>1.059631120300204</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034898776109782</v>
+        <v>1.052815564450959</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004543928218046</v>
+        <v>1.034650171376524</v>
       </c>
       <c r="D5">
-        <v>1.024650360973909</v>
+        <v>1.050129516865313</v>
       </c>
       <c r="E5">
-        <v>1.0098029299847</v>
+        <v>1.04559781028036</v>
       </c>
       <c r="F5">
-        <v>1.021275472865804</v>
+        <v>1.055707125803323</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048060306945694</v>
+        <v>1.063935978797628</v>
       </c>
       <c r="J5">
-        <v>1.02337992105097</v>
+        <v>1.052774882610406</v>
       </c>
       <c r="K5">
-        <v>1.034242732407473</v>
+        <v>1.059447953340419</v>
       </c>
       <c r="L5">
-        <v>1.019562795081617</v>
+        <v>1.054963774746509</v>
       </c>
       <c r="M5">
-        <v>1.03090538993626</v>
+        <v>1.064967748366302</v>
       </c>
       <c r="N5">
-        <v>1.024833237922181</v>
+        <v>1.054269943698679</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033031894268319</v>
+        <v>1.059989748793701</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035288237304318</v>
+        <v>1.053110238575215</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004733869626131</v>
+        <v>1.034806821850452</v>
       </c>
       <c r="D6">
-        <v>1.024783361412827</v>
+        <v>1.05023881239094</v>
       </c>
       <c r="E6">
-        <v>1.009954848702671</v>
+        <v>1.04571957400951</v>
       </c>
       <c r="F6">
-        <v>1.021420819059379</v>
+        <v>1.055822686899342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048104052341561</v>
+        <v>1.063980496353957</v>
       </c>
       <c r="J6">
-        <v>1.023489385998096</v>
+        <v>1.052855482761833</v>
       </c>
       <c r="K6">
-        <v>1.034337769372891</v>
+        <v>1.059520786772358</v>
       </c>
       <c r="L6">
-        <v>1.019675761424216</v>
+        <v>1.055048731108691</v>
       </c>
       <c r="M6">
-        <v>1.031012462534905</v>
+        <v>1.065047043537693</v>
       </c>
       <c r="N6">
-        <v>1.024942858322087</v>
+        <v>1.054350658311566</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033116635936106</v>
+        <v>1.060052503964285</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03536423698079</v>
+        <v>1.0531703289377</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003455662488705</v>
+        <v>1.033759583525783</v>
       </c>
       <c r="D7">
-        <v>1.023906743848574</v>
+        <v>1.049526922907901</v>
       </c>
       <c r="E7">
-        <v>1.008937696769173</v>
+        <v>1.044911131991308</v>
       </c>
       <c r="F7">
-        <v>1.020432653630997</v>
+        <v>1.055056270476618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047821808192686</v>
+        <v>1.063696963735182</v>
       </c>
       <c r="J7">
-        <v>1.022765324752749</v>
+        <v>1.052331648203328</v>
       </c>
       <c r="K7">
-        <v>1.033722042309833</v>
+        <v>1.059059391584953</v>
       </c>
       <c r="L7">
-        <v>1.01892646969556</v>
+        <v>1.054493299415416</v>
       </c>
       <c r="M7">
-        <v>1.030287652971014</v>
+        <v>1.064529904459983</v>
       </c>
       <c r="N7">
-        <v>1.02421776882672</v>
+        <v>1.053826079847903</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032542991572676</v>
+        <v>1.059643233667712</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034933087125513</v>
+        <v>1.052848220184482</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979914172541663</v>
+        <v>1.029303103200847</v>
       </c>
       <c r="D8">
-        <v>1.020153790085605</v>
+        <v>1.046499434932543</v>
       </c>
       <c r="E8">
-        <v>1.004599936463662</v>
+        <v>1.041480468801962</v>
       </c>
       <c r="F8">
-        <v>1.016229909140058</v>
+        <v>1.051804655500753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046578796604326</v>
+        <v>1.06246877750495</v>
       </c>
       <c r="J8">
-        <v>1.01965804509715</v>
+        <v>1.050094135212557</v>
       </c>
       <c r="K8">
-        <v>1.031067513871998</v>
+        <v>1.057084331883241</v>
       </c>
       <c r="L8">
-        <v>1.015717957134274</v>
+        <v>1.052126413430819</v>
       </c>
       <c r="M8">
-        <v>1.027194433754841</v>
+        <v>1.062325808516192</v>
       </c>
       <c r="N8">
-        <v>1.0211060764776</v>
+        <v>1.05158538933204</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030094884242435</v>
+        <v>1.057898882294429</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03306069682541</v>
+        <v>1.051456225345728</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9878925357796882</v>
+        <v>1.021155025157759</v>
       </c>
       <c r="D9">
-        <v>1.013213035834047</v>
+        <v>1.040985370889073</v>
       </c>
       <c r="E9">
-        <v>0.9966290554375548</v>
+        <v>1.035249894091234</v>
       </c>
       <c r="F9">
-        <v>1.008541506085888</v>
+        <v>1.045902894839768</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044154603285711</v>
+        <v>1.060151935898488</v>
       </c>
       <c r="J9">
-        <v>1.013880205589475</v>
+        <v>1.045982242132671</v>
       </c>
       <c r="K9">
-        <v>1.026095317401418</v>
+        <v>1.05344673243236</v>
       </c>
       <c r="L9">
-        <v>1.009777061655617</v>
+        <v>1.047795830570956</v>
       </c>
       <c r="M9">
-        <v>1.021497506863243</v>
+        <v>1.058292679127331</v>
       </c>
       <c r="N9">
-        <v>1.015320031775097</v>
+        <v>1.04746765689234</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025586067501517</v>
+        <v>1.054706998805298</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029541752623534</v>
+        <v>1.048881161616944</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809456340286865</v>
+        <v>1.015575296838055</v>
       </c>
       <c r="D10">
-        <v>1.008450915404839</v>
+        <v>1.037249332130318</v>
       </c>
       <c r="E10">
-        <v>0.9911950500727045</v>
+        <v>1.03103750784034</v>
       </c>
       <c r="F10">
-        <v>1.003548524086912</v>
+        <v>1.041945059929137</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042425225278415</v>
+        <v>1.058545055077488</v>
       </c>
       <c r="J10">
-        <v>1.009936185445665</v>
+        <v>1.043184299366892</v>
       </c>
       <c r="K10">
-        <v>1.022669244164364</v>
+        <v>1.050977103065363</v>
       </c>
       <c r="L10">
-        <v>1.005725121482776</v>
+        <v>1.044868105753001</v>
       </c>
       <c r="M10">
-        <v>1.017854003054644</v>
+        <v>1.05559614560115</v>
       </c>
       <c r="N10">
-        <v>1.011370410670298</v>
+        <v>1.044665740726905</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022754849967467</v>
+        <v>1.052623481720287</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027136237218653</v>
+        <v>1.04715157895163</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9788093521063566</v>
+        <v>1.013534244708894</v>
       </c>
       <c r="D11">
-        <v>1.007024249181742</v>
+        <v>1.036018461006954</v>
       </c>
       <c r="E11">
-        <v>0.9896412512355445</v>
+        <v>1.029681039538529</v>
       </c>
       <c r="F11">
-        <v>1.003962324932999</v>
+        <v>1.040906186314242</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041986962784103</v>
+        <v>1.058105935343444</v>
       </c>
       <c r="J11">
-        <v>1.00909105317253</v>
+        <v>1.042354624526213</v>
       </c>
       <c r="K11">
-        <v>1.021814903159303</v>
+        <v>1.05029165302909</v>
       </c>
       <c r="L11">
-        <v>1.004761198549546</v>
+        <v>1.044064112563709</v>
       </c>
       <c r="M11">
-        <v>1.018809902471057</v>
+        <v>1.055095812728034</v>
       </c>
       <c r="N11">
-        <v>1.010524078212397</v>
+        <v>1.043834887652787</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023954996418782</v>
+        <v>1.052656716766626</v>
       </c>
       <c r="Q11">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R11">
-        <v>1.02656538407692</v>
+        <v>1.046699284277293</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9783210038107645</v>
+        <v>1.012917321658418</v>
       </c>
       <c r="D12">
-        <v>1.00671016856212</v>
+        <v>1.035698047895151</v>
       </c>
       <c r="E12">
-        <v>0.9893409120026595</v>
+        <v>1.029347998641738</v>
       </c>
       <c r="F12">
-        <v>1.004986342546891</v>
+        <v>1.040766742624721</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041931552177484</v>
+        <v>1.058035888481841</v>
       </c>
       <c r="J12">
-        <v>1.009072064803313</v>
+        <v>1.042184882721614</v>
       </c>
       <c r="K12">
-        <v>1.021709931656669</v>
+        <v>1.050171862363045</v>
       </c>
       <c r="L12">
-        <v>1.00467521268005</v>
+        <v>1.043933738716865</v>
       </c>
       <c r="M12">
-        <v>1.020018631578249</v>
+        <v>1.055152484397661</v>
       </c>
       <c r="N12">
-        <v>1.010505062877517</v>
+        <v>1.043664904795356</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025242126806068</v>
+        <v>1.053023180331813</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026491164235967</v>
+        <v>1.046614590843103</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790776718135854</v>
+        <v>1.013370353982972</v>
       </c>
       <c r="D13">
-        <v>1.007243923209274</v>
+        <v>1.036074975829225</v>
       </c>
       <c r="E13">
-        <v>0.9899918461863296</v>
+        <v>1.029794889164823</v>
       </c>
       <c r="F13">
-        <v>1.006573221451993</v>
+        <v>1.041330998729214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042179201978626</v>
+        <v>1.058260762297644</v>
       </c>
       <c r="J13">
-        <v>1.009698707771767</v>
+        <v>1.042528847530573</v>
       </c>
       <c r="K13">
-        <v>1.022190072346114</v>
+        <v>1.050500375285214</v>
       </c>
       <c r="L13">
-        <v>1.005268643744872</v>
+        <v>1.044330498510565</v>
       </c>
       <c r="M13">
-        <v>1.021531948559398</v>
+        <v>1.055665480675577</v>
       </c>
       <c r="N13">
-        <v>1.011132595750864</v>
+        <v>1.044009358073797</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026718595082089</v>
+        <v>1.053701905794356</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026828126026719</v>
+        <v>1.046844399651662</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801585894026571</v>
+        <v>1.014173504960853</v>
       </c>
       <c r="D14">
-        <v>1.007993784435736</v>
+        <v>1.03665655253282</v>
       </c>
       <c r="E14">
-        <v>0.9908674282469805</v>
+        <v>1.030461819418749</v>
       </c>
       <c r="F14">
-        <v>1.007910270446861</v>
+        <v>1.042045893931103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042485572980742</v>
+        <v>1.05855238648052</v>
       </c>
       <c r="J14">
-        <v>1.010417612454453</v>
+        <v>1.043003139287731</v>
       </c>
       <c r="K14">
-        <v>1.02278328119306</v>
+        <v>1.050934884681338</v>
       </c>
       <c r="L14">
-        <v>1.005980849341562</v>
+        <v>1.044847507192747</v>
       </c>
       <c r="M14">
-        <v>1.022701311951209</v>
+        <v>1.056232168284766</v>
       </c>
       <c r="N14">
-        <v>1.011852521360659</v>
+        <v>1.044484323379652</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027817929151773</v>
+        <v>1.054321244206408</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027248993304331</v>
+        <v>1.047153005444299</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9807066164030492</v>
+        <v>1.014607555315346</v>
       </c>
       <c r="D15">
-        <v>1.008372656798901</v>
+        <v>1.036957750110137</v>
       </c>
       <c r="E15">
-        <v>0.9913007716196004</v>
+        <v>1.030801852935862</v>
       </c>
       <c r="F15">
-        <v>1.008408517367875</v>
+        <v>1.042385154008834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042632119974928</v>
+        <v>1.058692771318138</v>
       </c>
       <c r="J15">
-        <v>1.010748550027167</v>
+        <v>1.043237528383871</v>
       </c>
       <c r="K15">
-        <v>1.023067325661603</v>
+        <v>1.051146554302525</v>
       </c>
       <c r="L15">
-        <v>1.006315777037109</v>
+        <v>1.045096529503957</v>
       </c>
       <c r="M15">
-        <v>1.02310252821159</v>
+        <v>1.056481952633998</v>
       </c>
       <c r="N15">
-        <v>1.012183928902685</v>
+        <v>1.044719045335192</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028172899301284</v>
+        <v>1.054555828540831</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027455760172196</v>
+        <v>1.047308436964158</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9834882876565243</v>
+        <v>1.016885461688217</v>
       </c>
       <c r="D16">
-        <v>1.010279116390844</v>
+        <v>1.038474255506636</v>
       </c>
       <c r="E16">
-        <v>0.9934574179198945</v>
+        <v>1.032504422795572</v>
       </c>
       <c r="F16">
-        <v>1.01025491878917</v>
+        <v>1.043976573643366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04333088162827</v>
+        <v>1.059349476759424</v>
       </c>
       <c r="J16">
-        <v>1.012293747929101</v>
+        <v>1.044370099221411</v>
       </c>
       <c r="K16">
-        <v>1.024429085679848</v>
+        <v>1.052147193277687</v>
       </c>
       <c r="L16">
-        <v>1.00790878568229</v>
+        <v>1.046275564742498</v>
       </c>
       <c r="M16">
-        <v>1.024405312292209</v>
+        <v>1.05756027423909</v>
       </c>
       <c r="N16">
-        <v>1.013731321162876</v>
+        <v>1.04585322455323</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029163563783365</v>
+        <v>1.055369828443847</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028421788146462</v>
+        <v>1.048019020480031</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9850656019354072</v>
+        <v>1.018213745844633</v>
       </c>
       <c r="D17">
-        <v>1.011356001436675</v>
+        <v>1.039334043956069</v>
       </c>
       <c r="E17">
-        <v>0.994663292644118</v>
+        <v>1.033462366809477</v>
       </c>
       <c r="F17">
-        <v>1.010977474234435</v>
+        <v>1.044820114531934</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043706158139549</v>
+        <v>1.059697784071012</v>
       </c>
       <c r="J17">
-        <v>1.013110036306088</v>
+        <v>1.044989552295014</v>
       </c>
       <c r="K17">
-        <v>1.025167806049617</v>
+        <v>1.052685847699105</v>
       </c>
       <c r="L17">
-        <v>1.008765545209506</v>
+        <v>1.046908059854568</v>
       </c>
       <c r="M17">
-        <v>1.02479572783493</v>
+        <v>1.058085414656795</v>
       </c>
       <c r="N17">
-        <v>1.014548768762988</v>
+        <v>1.04647355732125</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029341955692794</v>
+        <v>1.055657324430274</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028946711996503</v>
+        <v>1.048402405128519</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857097099411911</v>
+        <v>1.018835778552726</v>
       </c>
       <c r="D18">
-        <v>1.011782934003529</v>
+        <v>1.039687457925733</v>
       </c>
       <c r="E18">
-        <v>0.9951191367144538</v>
+        <v>1.033845620454701</v>
       </c>
       <c r="F18">
-        <v>1.01062807494972</v>
+        <v>1.04506254022044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043822176583153</v>
+        <v>1.059800440072877</v>
       </c>
       <c r="J18">
-        <v>1.013323674116837</v>
+        <v>1.045205604505516</v>
       </c>
       <c r="K18">
-        <v>1.025401331690427</v>
+        <v>1.052854579206383</v>
       </c>
       <c r="L18">
-        <v>1.009022655452827</v>
+        <v>1.047104634607044</v>
       </c>
       <c r="M18">
-        <v>1.024265841538777</v>
+        <v>1.058146269417936</v>
       </c>
       <c r="N18">
-        <v>1.014762709963933</v>
+        <v>1.046689916350673</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028682852945997</v>
+        <v>1.055470766450605</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029100074218453</v>
+        <v>1.048510250507548</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854765676822593</v>
+        <v>1.018828214735469</v>
       </c>
       <c r="D19">
-        <v>1.011605886599829</v>
+        <v>1.03959643762194</v>
       </c>
       <c r="E19">
-        <v>0.9948681904876147</v>
+        <v>1.033716068281929</v>
       </c>
       <c r="F19">
-        <v>1.009198257478549</v>
+        <v>1.044767779060328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043698250294269</v>
+        <v>1.059690563748023</v>
       </c>
       <c r="J19">
-        <v>1.012961798363457</v>
+        <v>1.045067726355673</v>
       </c>
       <c r="K19">
-        <v>1.02516376449289</v>
+        <v>1.052703908505548</v>
       </c>
       <c r="L19">
-        <v>1.008711074927215</v>
+        <v>1.046915571796687</v>
       </c>
       <c r="M19">
-        <v>1.022796381627491</v>
+        <v>1.057795406709961</v>
       </c>
       <c r="N19">
-        <v>1.014400320305475</v>
+        <v>1.046551842398042</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027191194268974</v>
+        <v>1.054872561062212</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028938562085439</v>
+        <v>1.048410017416906</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9827773403463462</v>
+        <v>1.017046615218998</v>
       </c>
       <c r="D20">
-        <v>1.009718823573317</v>
+        <v>1.038248027981407</v>
       </c>
       <c r="E20">
-        <v>0.992630169089305</v>
+        <v>1.032151669251867</v>
       </c>
       <c r="F20">
-        <v>1.00486530043932</v>
+        <v>1.042993581065888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042896088892368</v>
+        <v>1.058983812938908</v>
       </c>
       <c r="J20">
-        <v>1.010988699204327</v>
+        <v>1.043935872990306</v>
       </c>
       <c r="K20">
-        <v>1.023592905123163</v>
+        <v>1.051650096634278</v>
       </c>
       <c r="L20">
-        <v>1.006803857906452</v>
+        <v>1.045651786594896</v>
       </c>
       <c r="M20">
-        <v>1.018823135510778</v>
+        <v>1.056320341910512</v>
       </c>
       <c r="N20">
-        <v>1.012424419119222</v>
+        <v>1.045418381671071</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023511078631529</v>
+        <v>1.053186224942182</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02783185205564</v>
+        <v>1.047668812920535</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9773551819570923</v>
+        <v>1.012783585385899</v>
       </c>
       <c r="D21">
-        <v>1.005995887343364</v>
+        <v>1.03537423418222</v>
       </c>
       <c r="E21">
-        <v>0.9883807082426688</v>
+        <v>1.028910101485851</v>
       </c>
       <c r="F21">
-        <v>1.000606367784193</v>
+        <v>1.039902900412165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041497268741536</v>
+        <v>1.057709957934649</v>
       </c>
       <c r="J21">
-        <v>1.007831161278016</v>
+        <v>1.041756385515996</v>
       </c>
       <c r="K21">
-        <v>1.020864549261793</v>
+        <v>1.04971505393487</v>
       </c>
       <c r="L21">
-        <v>1.003585606781055</v>
+        <v>1.043363710019099</v>
       </c>
       <c r="M21">
-        <v>1.015576261441367</v>
+        <v>1.054165781491305</v>
       </c>
       <c r="N21">
-        <v>1.009262397126881</v>
+        <v>1.043235799074556</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02089968290621</v>
+        <v>1.051440891716227</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025906037969641</v>
+        <v>1.046303881945726</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9739143081919217</v>
+        <v>1.01007120769336</v>
       </c>
       <c r="D22">
-        <v>1.003633354959796</v>
+        <v>1.033553382911255</v>
       </c>
       <c r="E22">
-        <v>0.9856972876218609</v>
+        <v>1.026864046800863</v>
       </c>
       <c r="F22">
-        <v>0.998041119083427</v>
+        <v>1.037967513046211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040597757299131</v>
+        <v>1.056896667669017</v>
       </c>
       <c r="J22">
-        <v>1.005843713736808</v>
+        <v>1.04037564264759</v>
       </c>
       <c r="K22">
-        <v>1.019133176374479</v>
+        <v>1.048488211408168</v>
       </c>
       <c r="L22">
-        <v>1.001557510393331</v>
+        <v>1.041921467930065</v>
       </c>
       <c r="M22">
-        <v>1.013651481924546</v>
+        <v>1.052822570083151</v>
       </c>
       <c r="N22">
-        <v>1.007272127182201</v>
+        <v>1.041853095392904</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019376304285691</v>
+        <v>1.050377845011735</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024668188107299</v>
+        <v>1.045423174231057</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9757375158327574</v>
+        <v>1.011504115211695</v>
       </c>
       <c r="D23">
-        <v>1.004880503507126</v>
+        <v>1.034509655765526</v>
       </c>
       <c r="E23">
-        <v>0.9871166169311361</v>
+        <v>1.027942494130581</v>
       </c>
       <c r="F23">
-        <v>0.9994019041139025</v>
+        <v>1.038987539808232</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041072792475324</v>
+        <v>1.057323175232444</v>
       </c>
       <c r="J23">
-        <v>1.006893727239763</v>
+        <v>1.04110085492583</v>
       </c>
       <c r="K23">
-        <v>1.020045307086762</v>
+        <v>1.049129404369471</v>
       </c>
       <c r="L23">
-        <v>1.002628848018751</v>
+        <v>1.042679529059958</v>
       </c>
       <c r="M23">
-        <v>1.014672132263515</v>
+        <v>1.053528417002265</v>
       </c>
       <c r="N23">
-        <v>1.008323631824769</v>
+        <v>1.042579337555762</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020184104724026</v>
+        <v>1.050936467794056</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025303361206065</v>
+        <v>1.045867022298863</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9827584216314152</v>
+        <v>1.017060844865905</v>
       </c>
       <c r="D24">
-        <v>1.009695545076071</v>
+        <v>1.038237081721922</v>
       </c>
       <c r="E24">
-        <v>0.9926024433120246</v>
+        <v>1.032142549937627</v>
       </c>
       <c r="F24">
-        <v>1.004663068593595</v>
+        <v>1.042961516889242</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04287602852518</v>
+        <v>1.058966667227742</v>
       </c>
       <c r="J24">
-        <v>1.01093671573132</v>
+        <v>1.043917607747959</v>
       </c>
       <c r="K24">
-        <v>1.023554508868084</v>
+        <v>1.051624412842441</v>
       </c>
       <c r="L24">
-        <v>1.006760725809348</v>
+        <v>1.045627777693263</v>
       </c>
       <c r="M24">
-        <v>1.018608787407288</v>
+        <v>1.056273966909278</v>
       </c>
       <c r="N24">
-        <v>1.012372361823721</v>
+        <v>1.045400090489985</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02329978727201</v>
+        <v>1.053109352443215</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027776999578605</v>
+        <v>1.047623675586793</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905758006498974</v>
+        <v>1.023312415268686</v>
       </c>
       <c r="D25">
-        <v>1.015064612660737</v>
+        <v>1.042450620158202</v>
       </c>
       <c r="E25">
-        <v>0.9987436053724044</v>
+        <v>1.036896951605804</v>
       </c>
       <c r="F25">
-        <v>1.010570351469051</v>
+        <v>1.047462743593105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044818269076671</v>
+        <v>1.060779756616125</v>
       </c>
       <c r="J25">
-        <v>1.015424543074733</v>
+        <v>1.047079911698655</v>
       </c>
       <c r="K25">
-        <v>1.027433485906839</v>
+        <v>1.054423841041105</v>
       </c>
       <c r="L25">
-        <v>1.011361456609465</v>
+        <v>1.048948271571085</v>
       </c>
       <c r="M25">
-        <v>1.023006762874746</v>
+        <v>1.05936637728577</v>
       </c>
       <c r="N25">
-        <v>1.016866562396722</v>
+        <v>1.048566885275011</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026780566801188</v>
+        <v>1.055556742108249</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030516794003226</v>
+        <v>1.049600138510194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028123995004375</v>
+        <v>1.023163339791579</v>
       </c>
       <c r="D2">
-        <v>1.045692764344229</v>
+        <v>1.040878008913547</v>
       </c>
       <c r="E2">
-        <v>1.040573463606795</v>
+        <v>1.036411333422344</v>
       </c>
       <c r="F2">
-        <v>1.050944998085686</v>
+        <v>1.047076211577995</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062133419541132</v>
+        <v>1.059035754757983</v>
       </c>
       <c r="J2">
-        <v>1.049494871294001</v>
+        <v>1.044672642932932</v>
       </c>
       <c r="K2">
-        <v>1.056550216865185</v>
+        <v>1.051795774613101</v>
       </c>
       <c r="L2">
-        <v>1.051495067680784</v>
+        <v>1.047385677784962</v>
       </c>
       <c r="M2">
-        <v>1.061737441513231</v>
+        <v>1.057916461797147</v>
       </c>
       <c r="N2">
-        <v>1.050985274389983</v>
+        <v>1.034644347446028</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057433240012425</v>
+        <v>1.054409253674754</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.05105605216292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047702989085041</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025714166466289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031553207399809</v>
+        <v>1.026335286123343</v>
       </c>
       <c r="D3">
-        <v>1.048019905486502</v>
+        <v>1.042949203616528</v>
       </c>
       <c r="E3">
-        <v>1.04320849370733</v>
+        <v>1.038823147417662</v>
       </c>
       <c r="F3">
-        <v>1.05344205012985</v>
+        <v>1.049369012973637</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063087030770274</v>
+        <v>1.0598208457788</v>
       </c>
       <c r="J3">
-        <v>1.051219158033211</v>
+        <v>1.046132892141278</v>
       </c>
       <c r="K3">
-        <v>1.058073129644358</v>
+        <v>1.053060522363813</v>
       </c>
       <c r="L3">
-        <v>1.053316824871065</v>
+        <v>1.048982255384924</v>
       </c>
       <c r="M3">
-        <v>1.063433915512975</v>
+        <v>1.059406897126978</v>
       </c>
       <c r="N3">
-        <v>1.052712009814141</v>
+        <v>1.035463024297828</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058775853669421</v>
+        <v>1.055588810193183</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.052130227130784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04859434943179</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025957010553194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033737097311578</v>
+        <v>1.028356551101803</v>
       </c>
       <c r="D4">
-        <v>1.049505649108781</v>
+        <v>1.044272680610104</v>
       </c>
       <c r="E4">
-        <v>1.044892102023815</v>
+        <v>1.040365519777928</v>
       </c>
       <c r="F4">
-        <v>1.055037977113656</v>
+        <v>1.050835624324458</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063686081301799</v>
+        <v>1.060312868461753</v>
       </c>
       <c r="J4">
-        <v>1.052315477806186</v>
+        <v>1.047061692686811</v>
       </c>
       <c r="K4">
-        <v>1.059041159085973</v>
+        <v>1.053864596931261</v>
       </c>
       <c r="L4">
-        <v>1.054477305425852</v>
+        <v>1.050000005774604</v>
       </c>
       <c r="M4">
-        <v>1.06451459845306</v>
+        <v>1.060356908109172</v>
       </c>
       <c r="N4">
-        <v>1.053809886486943</v>
+        <v>1.035983746129956</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059631120300204</v>
+        <v>1.056340664501632</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052815564450959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04916384941304</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026109189183439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034650171376524</v>
+        <v>1.029201737273775</v>
       </c>
       <c r="D5">
-        <v>1.050129516865313</v>
+        <v>1.044828819412322</v>
       </c>
       <c r="E5">
-        <v>1.04559781028036</v>
+        <v>1.041012247701649</v>
       </c>
       <c r="F5">
-        <v>1.055707125803323</v>
+        <v>1.051450788662598</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.063935978797628</v>
+        <v>1.060518024018156</v>
       </c>
       <c r="J5">
-        <v>1.052774882610406</v>
+        <v>1.047451050833091</v>
       </c>
       <c r="K5">
-        <v>1.059447953340419</v>
+        <v>1.05420289900118</v>
       </c>
       <c r="L5">
-        <v>1.054963774746509</v>
+        <v>1.050426820561797</v>
       </c>
       <c r="M5">
-        <v>1.064967748366302</v>
+        <v>1.060755461994075</v>
       </c>
       <c r="N5">
-        <v>1.054269943698679</v>
+        <v>1.036202034891085</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059989748793701</v>
+        <v>1.05665608637728</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053110238575215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049410826315968</v>
+      </c>
+      <c r="S5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T5">
+        <v>1.026173208818913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034806821850452</v>
+        <v>1.029346549270282</v>
       </c>
       <c r="D6">
-        <v>1.05023881239094</v>
+        <v>1.04492643840398</v>
       </c>
       <c r="E6">
-        <v>1.04571957400951</v>
+        <v>1.041123731898343</v>
       </c>
       <c r="F6">
-        <v>1.055822686899342</v>
+        <v>1.051556985326304</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.063980496353957</v>
+        <v>1.060554795379232</v>
       </c>
       <c r="J6">
-        <v>1.052855482761833</v>
+        <v>1.047519453957658</v>
       </c>
       <c r="K6">
-        <v>1.059520786772358</v>
+        <v>1.054263927626494</v>
       </c>
       <c r="L6">
-        <v>1.055048731108691</v>
+        <v>1.050501385436532</v>
       </c>
       <c r="M6">
-        <v>1.065047043537693</v>
+        <v>1.060825290681447</v>
       </c>
       <c r="N6">
-        <v>1.054350658311566</v>
+        <v>1.036240384207732</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.060052503964285</v>
+        <v>1.056711349896305</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.0531703289377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049463461104164</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026185370115139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033759583525783</v>
+        <v>1.028394481470874</v>
       </c>
       <c r="D7">
-        <v>1.049526922907901</v>
+        <v>1.044304942906732</v>
       </c>
       <c r="E7">
-        <v>1.044911131991308</v>
+        <v>1.040397803910168</v>
       </c>
       <c r="F7">
-        <v>1.055056270476618</v>
+        <v>1.050864511132102</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.063696963735182</v>
+        <v>1.060331884457075</v>
       </c>
       <c r="J7">
-        <v>1.052331648203328</v>
+        <v>1.047092887597155</v>
       </c>
       <c r="K7">
-        <v>1.059059391584953</v>
+        <v>1.05389367726828</v>
       </c>
       <c r="L7">
-        <v>1.054493299415416</v>
+        <v>1.05002909032753</v>
       </c>
       <c r="M7">
-        <v>1.064529904459983</v>
+        <v>1.060382677765402</v>
       </c>
       <c r="N7">
-        <v>1.053826079847903</v>
+        <v>1.036052689903679</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059643233667712</v>
+        <v>1.056361059020871</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052848220184482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049206223969948</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026118467034176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029303103200847</v>
+        <v>1.024307797440444</v>
       </c>
       <c r="D8">
-        <v>1.046499434932543</v>
+        <v>1.041636114731493</v>
       </c>
       <c r="E8">
-        <v>1.041480468801962</v>
+        <v>1.037287917441322</v>
       </c>
       <c r="F8">
-        <v>1.051804655500753</v>
+        <v>1.04790302982481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.06246877750495</v>
+        <v>1.059342043494422</v>
       </c>
       <c r="J8">
-        <v>1.050094135212557</v>
+        <v>1.04523363468385</v>
       </c>
       <c r="K8">
-        <v>1.057084331883241</v>
+        <v>1.052280155187309</v>
       </c>
       <c r="L8">
-        <v>1.052126413430819</v>
+        <v>1.04798542138996</v>
       </c>
       <c r="M8">
-        <v>1.062325808516192</v>
+        <v>1.058470984190349</v>
       </c>
       <c r="N8">
-        <v>1.05158538933204</v>
+        <v>1.035114827789722</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057898882294429</v>
+        <v>1.054848112583559</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.051456225345728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048070320061229</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025816102758355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021155025157759</v>
+        <v>1.016788941881155</v>
       </c>
       <c r="D9">
-        <v>1.040985370889073</v>
+        <v>1.036741987207052</v>
       </c>
       <c r="E9">
-        <v>1.035249894091234</v>
+        <v>1.031602303096367</v>
       </c>
       <c r="F9">
-        <v>1.045902894839768</v>
+        <v>1.042498380300108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.060151935898488</v>
+        <v>1.057432718879932</v>
       </c>
       <c r="J9">
-        <v>1.045982242132671</v>
+        <v>1.041762457611791</v>
       </c>
       <c r="K9">
-        <v>1.05344673243236</v>
+        <v>1.049265806957548</v>
       </c>
       <c r="L9">
-        <v>1.047795830570956</v>
+        <v>1.044202649196203</v>
       </c>
       <c r="M9">
-        <v>1.058292679127331</v>
+        <v>1.05493762792358</v>
       </c>
       <c r="N9">
-        <v>1.04746765689234</v>
+        <v>1.033187546350832</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054706998805298</v>
+        <v>1.052051747077494</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048881161616944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045935621043788</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025224273714719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015575296838055</v>
+        <v>1.011723259816396</v>
       </c>
       <c r="D10">
-        <v>1.037249332130318</v>
+        <v>1.033489221419663</v>
       </c>
       <c r="E10">
-        <v>1.03103750784034</v>
+        <v>1.027833455063553</v>
       </c>
       <c r="F10">
-        <v>1.041945059929137</v>
+        <v>1.038937869437967</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.058545055077488</v>
+        <v>1.056146461787442</v>
       </c>
       <c r="J10">
-        <v>1.043184299366892</v>
+        <v>1.039479349607392</v>
       </c>
       <c r="K10">
-        <v>1.050977103065363</v>
+        <v>1.047279044977314</v>
       </c>
       <c r="L10">
-        <v>1.044868105753001</v>
+        <v>1.041717717550273</v>
       </c>
       <c r="M10">
-        <v>1.05559614560115</v>
+        <v>1.052637962513959</v>
       </c>
       <c r="N10">
-        <v>1.044665740726905</v>
+        <v>1.032137121385711</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052623481720287</v>
+        <v>1.050282454483058</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04715157895163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044549149052692</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024838537931457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013534244708894</v>
+        <v>1.009945273581346</v>
       </c>
       <c r="D11">
-        <v>1.036018461006954</v>
+        <v>1.032483982156318</v>
       </c>
       <c r="E11">
-        <v>1.029681039538529</v>
+        <v>1.026700946916108</v>
       </c>
       <c r="F11">
-        <v>1.040906186314242</v>
+        <v>1.038094957483644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.058105935343444</v>
+        <v>1.05586237093629</v>
       </c>
       <c r="J11">
-        <v>1.042354624526213</v>
+        <v>1.038910091408376</v>
       </c>
       <c r="K11">
-        <v>1.05029165302909</v>
+        <v>1.046818241220603</v>
       </c>
       <c r="L11">
-        <v>1.044064112563709</v>
+        <v>1.041136297970921</v>
       </c>
       <c r="M11">
-        <v>1.055095812728034</v>
+        <v>1.052332523349779</v>
       </c>
       <c r="N11">
-        <v>1.043834887652787</v>
+        <v>1.032256423316706</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052656716766626</v>
+        <v>1.050470990123807</v>
       </c>
       <c r="Q11">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046699284277293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044258957723763</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024806812822197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012917321658418</v>
+        <v>1.009397928420956</v>
       </c>
       <c r="D12">
-        <v>1.035698047895151</v>
+        <v>1.03222138542374</v>
       </c>
       <c r="E12">
-        <v>1.029347998641738</v>
+        <v>1.026424817585027</v>
       </c>
       <c r="F12">
-        <v>1.040766742624721</v>
+        <v>1.038006679955697</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.058035888481841</v>
+        <v>1.055833002774069</v>
       </c>
       <c r="J12">
-        <v>1.042184882721614</v>
+        <v>1.038809808647464</v>
       </c>
       <c r="K12">
-        <v>1.050171862363045</v>
+        <v>1.04675625816861</v>
       </c>
       <c r="L12">
-        <v>1.043933738716865</v>
+        <v>1.041062686053379</v>
       </c>
       <c r="M12">
-        <v>1.055152484397661</v>
+        <v>1.052440241992102</v>
       </c>
       <c r="N12">
-        <v>1.043664904795356</v>
+        <v>1.032390804652761</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.053023180331813</v>
+        <v>1.050878537724504</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046614590843103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044215135602294</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024830989733755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013370353982972</v>
+        <v>1.009763106468401</v>
       </c>
       <c r="D13">
-        <v>1.036074975829225</v>
+        <v>1.032521668421821</v>
       </c>
       <c r="E13">
-        <v>1.029794889164823</v>
+        <v>1.026793351413415</v>
       </c>
       <c r="F13">
-        <v>1.041330998729214</v>
+        <v>1.038505560423717</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.058260762297644</v>
+        <v>1.056006620740102</v>
       </c>
       <c r="J13">
-        <v>1.042528847530573</v>
+        <v>1.039068813172789</v>
       </c>
       <c r="K13">
-        <v>1.050500375285214</v>
+        <v>1.047009211813911</v>
       </c>
       <c r="L13">
-        <v>1.044330498510565</v>
+        <v>1.041382253157808</v>
       </c>
       <c r="M13">
-        <v>1.055665480675577</v>
+        <v>1.052888768179975</v>
       </c>
       <c r="N13">
-        <v>1.044009358073797</v>
+        <v>1.032493931494628</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.053701905794356</v>
+        <v>1.051506824143488</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046844399651662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044391273546745</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024905206028206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014173504960853</v>
+        <v>1.010436808192385</v>
       </c>
       <c r="D14">
-        <v>1.03665655253282</v>
+        <v>1.032991424907183</v>
       </c>
       <c r="E14">
-        <v>1.030461819418749</v>
+        <v>1.027347593165783</v>
       </c>
       <c r="F14">
-        <v>1.042045893931103</v>
+        <v>1.039124546378318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05855238648052</v>
+        <v>1.056222564591923</v>
       </c>
       <c r="J14">
-        <v>1.043003139287731</v>
+        <v>1.039416801656846</v>
       </c>
       <c r="K14">
-        <v>1.050934884681338</v>
+        <v>1.04733307295093</v>
       </c>
       <c r="L14">
-        <v>1.044847507192747</v>
+        <v>1.041787884855347</v>
       </c>
       <c r="M14">
-        <v>1.056232168284766</v>
+        <v>1.053360568485519</v>
       </c>
       <c r="N14">
-        <v>1.044484323379652</v>
+        <v>1.03255539204893</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054321244206408</v>
+        <v>1.052051452217578</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.047153005444299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044621787544896</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024981671819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014607555315346</v>
+        <v>1.010806447774335</v>
       </c>
       <c r="D15">
-        <v>1.036957750110137</v>
+        <v>1.033237116229367</v>
       </c>
       <c r="E15">
-        <v>1.030801852935862</v>
+        <v>1.027632193369428</v>
       </c>
       <c r="F15">
-        <v>1.042385154008834</v>
+        <v>1.039416157985633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058692771318138</v>
+        <v>1.056325200950662</v>
       </c>
       <c r="J15">
-        <v>1.043237528383871</v>
+        <v>1.039588062214214</v>
       </c>
       <c r="K15">
-        <v>1.051146554302525</v>
+        <v>1.047489714831792</v>
       </c>
       <c r="L15">
-        <v>1.045096529503957</v>
+        <v>1.04198202413082</v>
       </c>
       <c r="M15">
-        <v>1.056481952633998</v>
+        <v>1.053563133492956</v>
       </c>
       <c r="N15">
-        <v>1.044719045335192</v>
+        <v>1.032572327408241</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054555828540831</v>
+        <v>1.052248773030231</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047308436964158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044738894414471</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.0250145602429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016885461688217</v>
+        <v>1.012781325545708</v>
       </c>
       <c r="D16">
-        <v>1.038474255506636</v>
+        <v>1.0344904754155</v>
       </c>
       <c r="E16">
-        <v>1.032504422795572</v>
+        <v>1.029076362701418</v>
       </c>
       <c r="F16">
-        <v>1.043976573643366</v>
+        <v>1.040782638844254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.059349476759424</v>
+        <v>1.056802676345246</v>
       </c>
       <c r="J16">
-        <v>1.044370099221411</v>
+        <v>1.040421663393391</v>
       </c>
       <c r="K16">
-        <v>1.052147193277687</v>
+        <v>1.048228784782072</v>
       </c>
       <c r="L16">
-        <v>1.046275564742498</v>
+        <v>1.04290456008314</v>
       </c>
       <c r="M16">
-        <v>1.05756027423909</v>
+        <v>1.054417991459934</v>
       </c>
       <c r="N16">
-        <v>1.04585322455323</v>
+        <v>1.032640743496225</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055369828443847</v>
+        <v>1.052886076141416</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.048019020480031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045264854922816</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025148634680894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018213745844633</v>
+        <v>1.013958559191453</v>
       </c>
       <c r="D17">
-        <v>1.039334043956069</v>
+        <v>1.035216364748183</v>
       </c>
       <c r="E17">
-        <v>1.033462366809477</v>
+        <v>1.029905945221631</v>
       </c>
       <c r="F17">
-        <v>1.044820114531934</v>
+        <v>1.041512733787608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059697784071012</v>
+        <v>1.057060040352076</v>
       </c>
       <c r="J17">
-        <v>1.044989552295014</v>
+        <v>1.040890700493411</v>
       </c>
       <c r="K17">
-        <v>1.052685847699105</v>
+        <v>1.048633867940203</v>
       </c>
       <c r="L17">
-        <v>1.046908059854568</v>
+        <v>1.043409174796646</v>
       </c>
       <c r="M17">
-        <v>1.058085414656795</v>
+        <v>1.054830044586567</v>
       </c>
       <c r="N17">
-        <v>1.04647355732125</v>
+        <v>1.032718447902139</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055657324430274</v>
+        <v>1.05308393283542</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048402405128519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045554058225056</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025212814475117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018835778552726</v>
+        <v>1.014529534735515</v>
       </c>
       <c r="D18">
-        <v>1.039687457925733</v>
+        <v>1.035523138468701</v>
       </c>
       <c r="E18">
-        <v>1.033845620454701</v>
+        <v>1.030246595798961</v>
       </c>
       <c r="F18">
-        <v>1.04506254022044</v>
+        <v>1.041715736063004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059800440072877</v>
+        <v>1.057130855868586</v>
       </c>
       <c r="J18">
-        <v>1.045205604505516</v>
+        <v>1.041054652477718</v>
       </c>
       <c r="K18">
-        <v>1.052854579206383</v>
+        <v>1.048755629203656</v>
       </c>
       <c r="L18">
-        <v>1.047104634607044</v>
+        <v>1.043562888141637</v>
       </c>
       <c r="M18">
-        <v>1.058146269417936</v>
+        <v>1.054851260293546</v>
       </c>
       <c r="N18">
-        <v>1.046689916350673</v>
+        <v>1.032729206104732</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055470766450605</v>
+        <v>1.052865508891265</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048510250507548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045627536620726</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02521155167498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018828214735469</v>
+        <v>1.014548002594578</v>
       </c>
       <c r="D19">
-        <v>1.03959643762194</v>
+        <v>1.035455068264745</v>
       </c>
       <c r="E19">
-        <v>1.033716068281929</v>
+        <v>1.030140766579166</v>
       </c>
       <c r="F19">
-        <v>1.044767779060328</v>
+        <v>1.04143948681044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059690563748023</v>
+        <v>1.057035763648072</v>
       </c>
       <c r="J19">
-        <v>1.045067726355673</v>
+        <v>1.040940966430143</v>
       </c>
       <c r="K19">
-        <v>1.052703908505548</v>
+        <v>1.048627215733787</v>
       </c>
       <c r="L19">
-        <v>1.046915571796687</v>
+        <v>1.043396884572915</v>
       </c>
       <c r="M19">
-        <v>1.057795406709961</v>
+        <v>1.054518385679679</v>
       </c>
       <c r="N19">
-        <v>1.046551842398042</v>
+        <v>1.032642610560121</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.054872561062212</v>
+        <v>1.052280701613213</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048410017416906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.0455436774528</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025153962603671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017046615218998</v>
+        <v>1.01300680480989</v>
       </c>
       <c r="D20">
-        <v>1.038248027981407</v>
+        <v>1.034323020179418</v>
       </c>
       <c r="E20">
-        <v>1.032151669251867</v>
+        <v>1.028785595668416</v>
       </c>
       <c r="F20">
-        <v>1.042993581065888</v>
+        <v>1.039845571926453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058983812938908</v>
+        <v>1.056473397142061</v>
       </c>
       <c r="J20">
-        <v>1.043935872990306</v>
+        <v>1.040045382359076</v>
       </c>
       <c r="K20">
-        <v>1.051650096634278</v>
+        <v>1.047788045291135</v>
       </c>
       <c r="L20">
-        <v>1.045651786594896</v>
+        <v>1.042340490052066</v>
       </c>
       <c r="M20">
-        <v>1.056320341910512</v>
+        <v>1.053222190611498</v>
       </c>
       <c r="N20">
-        <v>1.045418381671071</v>
+        <v>1.032261837341875</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.053186224942182</v>
+        <v>1.050734401829571</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047668812920535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044954621756903</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024936831909303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012783585385899</v>
+        <v>1.009379600665206</v>
       </c>
       <c r="D21">
-        <v>1.03537423418222</v>
+        <v>1.031996334266889</v>
       </c>
       <c r="E21">
-        <v>1.028910101485851</v>
+        <v>1.026093731773016</v>
       </c>
       <c r="F21">
-        <v>1.039902900412165</v>
+        <v>1.037227465094074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057709957934649</v>
+        <v>1.055572525304547</v>
       </c>
       <c r="J21">
-        <v>1.041756385515996</v>
+        <v>1.038490332514176</v>
       </c>
       <c r="K21">
-        <v>1.04971505393487</v>
+        <v>1.046395864709832</v>
       </c>
       <c r="L21">
-        <v>1.043363710019099</v>
+        <v>1.040597058023327</v>
       </c>
       <c r="M21">
-        <v>1.054165781491305</v>
+        <v>1.051536284228246</v>
       </c>
       <c r="N21">
-        <v>1.043235799074556</v>
+        <v>1.032189796855161</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051440891716227</v>
+        <v>1.049359849009619</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046303881945726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04397382680677</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024681971437475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01007120769336</v>
+        <v>1.007052230043435</v>
       </c>
       <c r="D22">
-        <v>1.033553382911255</v>
+        <v>1.030509135354707</v>
       </c>
       <c r="E22">
-        <v>1.026864046800863</v>
+        <v>1.024381606222359</v>
       </c>
       <c r="F22">
-        <v>1.037967513046211</v>
+        <v>1.035579569912789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056896667669017</v>
+        <v>1.054985381529139</v>
       </c>
       <c r="J22">
-        <v>1.04037564264759</v>
+        <v>1.03748598420168</v>
       </c>
       <c r="K22">
-        <v>1.048488211408168</v>
+        <v>1.045499497514288</v>
       </c>
       <c r="L22">
-        <v>1.041921467930065</v>
+        <v>1.039485053370276</v>
       </c>
       <c r="M22">
-        <v>1.052822570083151</v>
+        <v>1.050477671690447</v>
       </c>
       <c r="N22">
-        <v>1.041853095392904</v>
+        <v>1.032093629380189</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.050377845011735</v>
+        <v>1.04852203782611</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.045423174231057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043325443851136</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024516290559546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011504115211695</v>
+        <v>1.00825883224067</v>
       </c>
       <c r="D23">
-        <v>1.034509655765526</v>
+        <v>1.031272132002406</v>
       </c>
       <c r="E23">
-        <v>1.027942494130581</v>
+        <v>1.025263493506591</v>
       </c>
       <c r="F23">
-        <v>1.038987539808232</v>
+        <v>1.036431598420768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057323175232444</v>
+        <v>1.055280243045125</v>
       </c>
       <c r="J23">
-        <v>1.04110085492583</v>
+        <v>1.037990585920036</v>
       </c>
       <c r="K23">
-        <v>1.049129404369471</v>
+        <v>1.045949458816645</v>
       </c>
       <c r="L23">
-        <v>1.042679529059958</v>
+        <v>1.040048935326606</v>
       </c>
       <c r="M23">
-        <v>1.053528417002265</v>
+        <v>1.051017386566475</v>
       </c>
       <c r="N23">
-        <v>1.042579337555762</v>
+        <v>1.032060004533088</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.050936467794056</v>
+        <v>1.048949181155538</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045867022298863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043633130990244</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024594591962483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017060844865905</v>
+        <v>1.013022810603852</v>
       </c>
       <c r="D24">
-        <v>1.038237081721922</v>
+        <v>1.034313310224589</v>
       </c>
       <c r="E24">
-        <v>1.032142549937627</v>
+        <v>1.028778203810529</v>
       </c>
       <c r="F24">
-        <v>1.042961516889242</v>
+        <v>1.039814614254134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.058966667227742</v>
+        <v>1.056457081043687</v>
       </c>
       <c r="J24">
-        <v>1.043917607747959</v>
+        <v>1.040028612615118</v>
       </c>
       <c r="K24">
-        <v>1.051624412842441</v>
+        <v>1.047763499277168</v>
       </c>
       <c r="L24">
-        <v>1.045627777693263</v>
+        <v>1.042318111648374</v>
       </c>
       <c r="M24">
-        <v>1.056273966909278</v>
+        <v>1.053176844946507</v>
       </c>
       <c r="N24">
-        <v>1.045400090489985</v>
+        <v>1.032244599555903</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.053109352443215</v>
+        <v>1.050658225985758</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047623675586793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044907561611192</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02492502171845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023312415268686</v>
+        <v>1.018755425040278</v>
       </c>
       <c r="D25">
-        <v>1.042450620158202</v>
+        <v>1.038025932790312</v>
       </c>
       <c r="E25">
-        <v>1.036896951605804</v>
+        <v>1.033084293948469</v>
       </c>
       <c r="F25">
-        <v>1.047462743593105</v>
+        <v>1.043909970043321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060779756616125</v>
+        <v>1.057940250171047</v>
       </c>
       <c r="J25">
-        <v>1.047079911698655</v>
+        <v>1.042667670531356</v>
       </c>
       <c r="K25">
-        <v>1.054423841041105</v>
+        <v>1.050061290801578</v>
       </c>
       <c r="L25">
-        <v>1.048948271571085</v>
+        <v>1.045189844995022</v>
       </c>
       <c r="M25">
-        <v>1.05936637728577</v>
+        <v>1.055862842633895</v>
       </c>
       <c r="N25">
-        <v>1.048566885275011</v>
+        <v>1.033629953070225</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.055556742108249</v>
+        <v>1.052783980637916</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049600138510194</v>
+        <v>1.046529051121495</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025382587343098</v>
       </c>
     </row>
   </sheetData>
